--- a/Phase_I/test_results_70thresh_50epoch.xlsx
+++ b/Phase_I/test_results_70thresh_50epoch.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A28"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
